--- a/etat_paiement.xlsx
+++ b/etat_paiement.xlsx
@@ -849,7 +849,7 @@
       </c>
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>GANHOUN ETIENNE</t>
+          <t>ADE KOFFIRENAUD</t>
         </is>
       </c>
       <c r="C16" s="14" t="inlineStr"/>
@@ -866,8 +866,8 @@
       <c r="N16" s="14" t="inlineStr"/>
       <c r="O16" s="14" t="inlineStr">
         <is>
-          <t>CIP 20164625632524 
-EXP : 18/01/2026</t>
+          <t>CB 100572405 
+EXP : 21/11/2028</t>
         </is>
       </c>
       <c r="P16" s="14" t="inlineStr"/>

--- a/etat_paiement.xlsx
+++ b/etat_paiement.xlsx
@@ -7,11 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etat de Paiement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etat 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etat 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etat 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etat 4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Etat 5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Etat de Paiement'!$1:$15</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Etat de Paiement'!$A$1:$Q$26</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Etat 1'!$1:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Etat 2'!$1:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Etat 3'!$1:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Etat 4'!$1:$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Etat 5'!$1:$15</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -65,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -103,27 +110,6 @@
       <right style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -147,10 +133,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -240,6 +226,126 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -558,7 +664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +955,7 @@
       </c>
       <c r="B16" s="14" t="inlineStr">
         <is>
-          <t>ADE KOFFIRENAUD</t>
+          <t>SEGLA MODESTE GBETOGNON</t>
         </is>
       </c>
       <c r="C16" s="14" t="inlineStr"/>
@@ -866,8 +972,8 @@
       <c r="N16" s="14" t="inlineStr"/>
       <c r="O16" s="14" t="inlineStr">
         <is>
-          <t>CB 100572405 
-EXP : 21/11/2028</t>
+          <t>CIP 20305367825825 
+EXP : 03/01/2027</t>
         </is>
       </c>
       <c r="P16" s="14" t="inlineStr"/>
@@ -881,165 +987,2147 @@
       <c r="A17" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="C17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="F17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="G17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="I17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="J17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="K17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="L17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="M17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="N17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="O17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="P17" s="14" t="n">
-        <v/>
-      </c>
-      <c r="Q17" s="14" t="n">
-        <v/>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>DEGUENON CINSOU JUDES CHARLES</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr"/>
+      <c r="H17" s="14" t="inlineStr"/>
+      <c r="I17" s="14" t="inlineStr"/>
+      <c r="J17" s="14" t="inlineStr"/>
+      <c r="K17" s="14" t="inlineStr"/>
+      <c r="L17" s="14" t="inlineStr"/>
+      <c r="M17" s="14" t="inlineStr"/>
+      <c r="N17" s="14" t="inlineStr"/>
+      <c r="O17" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20255900038424 
+EXP : 16/08/2026</t>
+        </is>
+      </c>
+      <c r="P17" s="14" t="inlineStr"/>
+      <c r="Q17" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
       </c>
     </row>
     <row r="18" ht="45" customHeight="1">
       <c r="A18" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="C18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="F18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="G18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="H18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="I18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="J18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="K18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="L18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="M18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="N18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="O18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="P18" s="14" t="n">
-        <v/>
-      </c>
-      <c r="Q18" s="14" t="n">
-        <v/>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>OUENSA GEO FROY MWILFRIED</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="14" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr"/>
+      <c r="I18" s="14" t="inlineStr"/>
+      <c r="J18" s="14" t="inlineStr"/>
+      <c r="K18" s="14" t="inlineStr"/>
+      <c r="L18" s="14" t="inlineStr"/>
+      <c r="M18" s="14" t="inlineStr"/>
+      <c r="N18" s="14" t="inlineStr"/>
+      <c r="O18" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20058870379224 
+EXP : 03/12/2026</t>
+        </is>
+      </c>
+      <c r="P18" s="14" t="inlineStr"/>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="45" customHeight="1">
       <c r="A19" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="C19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="F19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="H19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="I19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="J19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="K19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="L19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="M19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="N19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="O19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="P19" s="14" t="n">
-        <v/>
-      </c>
-      <c r="Q19" s="14" t="n">
-        <v/>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>AGOI MARTIN</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="14" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
+      <c r="G19" s="14" t="inlineStr"/>
+      <c r="H19" s="14" t="inlineStr"/>
+      <c r="I19" s="14" t="inlineStr"/>
+      <c r="J19" s="14" t="inlineStr"/>
+      <c r="K19" s="14" t="inlineStr"/>
+      <c r="L19" s="14" t="inlineStr"/>
+      <c r="M19" s="14" t="inlineStr"/>
+      <c r="N19" s="14" t="inlineStr"/>
+      <c r="O19" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20486572230023 
+EXP : 25/10/2025</t>
+        </is>
+      </c>
+      <c r="P19" s="14" t="inlineStr"/>
+      <c r="Q19" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
       </c>
     </row>
     <row r="20" ht="45" customHeight="1">
       <c r="A20" s="14" t="n">
         <v>5</v>
       </c>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>AMOUSSOU PARFAIT</t>
+        </is>
+      </c>
+      <c r="C20" s="14" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr"/>
+      <c r="F20" s="14" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr"/>
+      <c r="H20" s="14" t="inlineStr"/>
+      <c r="I20" s="14" t="inlineStr"/>
+      <c r="J20" s="14" t="inlineStr"/>
+      <c r="K20" s="14" t="inlineStr"/>
+      <c r="L20" s="14" t="inlineStr"/>
+      <c r="M20" s="14" t="inlineStr"/>
+      <c r="N20" s="14" t="inlineStr"/>
+      <c r="O20" s="14" t="inlineStr">
+        <is>
+          <t>CIP 400440682 
+EXP : 28/10/2026</t>
+        </is>
+      </c>
+      <c r="P20" s="14" t="inlineStr"/>
+      <c r="Q20" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Arrêté le présent état à la somme de :</t>
+        </is>
+      </c>
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>ZÉRO FRANCS CFA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.05" header="0.3" footer="0.01"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taux de perdiem payé en FCFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12" customHeight="1">
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>MONTANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>6750 // 11250</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM PREMIER &amp; DERNIER JOUR</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>47500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1">
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>Frais de déplacement payés selon les tarifs UNACOB</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>Carburant remboursé au prix de la pompe pour 16L au 100 Km</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1"/>
+    <row r="8" ht="32" customHeight="1">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>TITRE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>nmaxies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="10" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>maxime</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>LIEU DE DEROULEMENT:</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>AHODEKON Maxie</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE PAIEMENT :</t>
+        </is>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>test0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1">
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>ETAT DE PAIEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>N°</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Nom et Prénoms</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Titre</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lieu de 
+provenance</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 1er 
+ET DERNIER JOUR DE 
+MISSION (11250+25000+11250)</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>Montant 
+(A)</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Transport 
+aller-retour 
+(B)</t>
+        </is>
+      </c>
+      <c r="M14" s="9" t="inlineStr">
+        <is>
+          <t>Frais de retrait 
+(si paiement mobile money) 
+(C)</t>
+        </is>
+      </c>
+      <c r="N14" s="9" t="inlineStr">
+        <is>
+          <t>Montant total 
+(A+B+C)</t>
+        </is>
+      </c>
+      <c r="O14" s="9" t="inlineStr">
+        <is>
+          <t>No pièce d'identité</t>
+        </is>
+      </c>
+      <c r="P14" s="9" t="inlineStr">
+        <is>
+          <t>N° téléphone</t>
+        </is>
+      </c>
+      <c r="Q14" s="9" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="I15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="K15" s="12" t="n"/>
+      <c r="L15" s="12" t="n"/>
+      <c r="M15" s="12" t="n"/>
+      <c r="N15" s="12" t="n"/>
+      <c r="O15" s="12" t="n"/>
+      <c r="P15" s="12" t="n"/>
+      <c r="Q15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>ADEDE KOCOU ABRAHAM</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="14" t="inlineStr"/>
+      <c r="H16" s="14" t="inlineStr"/>
+      <c r="I16" s="14" t="inlineStr"/>
+      <c r="J16" s="14" t="inlineStr"/>
+      <c r="K16" s="14" t="inlineStr"/>
+      <c r="L16" s="14" t="inlineStr"/>
+      <c r="M16" s="14" t="inlineStr"/>
+      <c r="N16" s="14" t="inlineStr"/>
+      <c r="O16" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20194208103324 
+EXP : 06/09/2026</t>
+        </is>
+      </c>
+      <c r="P16" s="14" t="inlineStr"/>
+      <c r="Q16" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>HOUNTONNAGNON CAKPO LUCIEN</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr"/>
+      <c r="H17" s="14" t="inlineStr"/>
+      <c r="I17" s="14" t="inlineStr"/>
+      <c r="J17" s="14" t="inlineStr"/>
+      <c r="K17" s="14" t="inlineStr"/>
+      <c r="L17" s="14" t="inlineStr"/>
+      <c r="M17" s="14" t="inlineStr"/>
+      <c r="N17" s="14" t="inlineStr"/>
+      <c r="O17" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20570897623623 
+EXP : 10/08/2025</t>
+        </is>
+      </c>
+      <c r="P17" s="14" t="inlineStr"/>
+      <c r="Q17" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>TCHOGNINOU MATHIAS</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="14" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr"/>
+      <c r="I18" s="14" t="inlineStr"/>
+      <c r="J18" s="14" t="inlineStr"/>
+      <c r="K18" s="14" t="inlineStr"/>
+      <c r="L18" s="14" t="inlineStr"/>
+      <c r="M18" s="14" t="inlineStr"/>
+      <c r="N18" s="14" t="inlineStr"/>
+      <c r="O18" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20266486636525 
+EXP : 30/03/2027</t>
+        </is>
+      </c>
+      <c r="P18" s="14" t="inlineStr"/>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1">
+      <c r="A19" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>ZINHOUEHOU DOROTHE</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="14" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
+      <c r="G19" s="14" t="inlineStr"/>
+      <c r="H19" s="14" t="inlineStr"/>
+      <c r="I19" s="14" t="inlineStr"/>
+      <c r="J19" s="14" t="inlineStr"/>
+      <c r="K19" s="14" t="inlineStr"/>
+      <c r="L19" s="14" t="inlineStr"/>
+      <c r="M19" s="14" t="inlineStr"/>
+      <c r="N19" s="14" t="inlineStr"/>
+      <c r="O19" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20079080328224 
+EXP : 15/01/2026</t>
+        </is>
+      </c>
+      <c r="P19" s="14" t="inlineStr"/>
+      <c r="Q19" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>FANOU SENOUMATE GEDEON</t>
+        </is>
+      </c>
+      <c r="C20" s="14" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr"/>
+      <c r="F20" s="14" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr"/>
+      <c r="H20" s="14" t="inlineStr"/>
+      <c r="I20" s="14" t="inlineStr"/>
+      <c r="J20" s="14" t="inlineStr"/>
+      <c r="K20" s="14" t="inlineStr"/>
+      <c r="L20" s="14" t="inlineStr"/>
+      <c r="M20" s="14" t="inlineStr"/>
+      <c r="N20" s="14" t="inlineStr"/>
+      <c r="O20" s="14" t="inlineStr">
+        <is>
+          <t>PP 20419480705725 
+EXP : 02/06/2027</t>
+        </is>
+      </c>
+      <c r="P20" s="14" t="inlineStr"/>
+      <c r="Q20" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Arrêté le présent état à la somme de :</t>
+        </is>
+      </c>
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>ZÉRO FRANCS CFA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.05" header="0.3" footer="0.01"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taux de perdiem payé en FCFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12" customHeight="1">
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>MONTANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>6750 // 11250</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM PREMIER &amp; DERNIER JOUR</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>47500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1">
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>Frais de déplacement payés selon les tarifs UNACOB</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>Carburant remboursé au prix de la pompe pour 16L au 100 Km</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1"/>
+    <row r="8" ht="32" customHeight="1">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>TITRE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>nmaxies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="10" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>maxime</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>LIEU DE DEROULEMENT:</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>AHODEKON Maxie</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE PAIEMENT :</t>
+        </is>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>test0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1">
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>ETAT DE PAIEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>N°</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Nom et Prénoms</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Titre</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lieu de 
+provenance</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 1er 
+ET DERNIER JOUR DE 
+MISSION (11250+25000+11250)</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>Montant 
+(A)</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Transport 
+aller-retour 
+(B)</t>
+        </is>
+      </c>
+      <c r="M14" s="9" t="inlineStr">
+        <is>
+          <t>Frais de retrait 
+(si paiement mobile money) 
+(C)</t>
+        </is>
+      </c>
+      <c r="N14" s="9" t="inlineStr">
+        <is>
+          <t>Montant total 
+(A+B+C)</t>
+        </is>
+      </c>
+      <c r="O14" s="9" t="inlineStr">
+        <is>
+          <t>No pièce d'identité</t>
+        </is>
+      </c>
+      <c r="P14" s="9" t="inlineStr">
+        <is>
+          <t>N° téléphone</t>
+        </is>
+      </c>
+      <c r="Q14" s="9" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="I15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="K15" s="12" t="n"/>
+      <c r="L15" s="12" t="n"/>
+      <c r="M15" s="12" t="n"/>
+      <c r="N15" s="12" t="n"/>
+      <c r="O15" s="12" t="n"/>
+      <c r="P15" s="12" t="n"/>
+      <c r="Q15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>EKEHOUNDE ECUROSSE MICHELINE</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="14" t="inlineStr"/>
+      <c r="H16" s="14" t="inlineStr"/>
+      <c r="I16" s="14" t="inlineStr"/>
+      <c r="J16" s="14" t="inlineStr"/>
+      <c r="K16" s="14" t="inlineStr"/>
+      <c r="L16" s="14" t="inlineStr"/>
+      <c r="M16" s="14" t="inlineStr"/>
+      <c r="N16" s="14" t="inlineStr"/>
+      <c r="O16" s="14" t="inlineStr">
+        <is>
+          <t>CIP 100634261 
+EXP : 02/05/2029</t>
+        </is>
+      </c>
+      <c r="P16" s="14" t="inlineStr"/>
+      <c r="Q16" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>DAGBEGNON BONAVENTURE</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr"/>
+      <c r="H17" s="14" t="inlineStr"/>
+      <c r="I17" s="14" t="inlineStr"/>
+      <c r="J17" s="14" t="inlineStr"/>
+      <c r="K17" s="14" t="inlineStr"/>
+      <c r="L17" s="14" t="inlineStr"/>
+      <c r="M17" s="14" t="inlineStr"/>
+      <c r="N17" s="14" t="inlineStr"/>
+      <c r="O17" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20417224950425 
+EXP : 05/05/2027</t>
+        </is>
+      </c>
+      <c r="P17" s="14" t="inlineStr"/>
+      <c r="Q17" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>SOHOUNDJO MEREMIE DENANHOUEA</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="14" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr"/>
+      <c r="I18" s="14" t="inlineStr"/>
+      <c r="J18" s="14" t="inlineStr"/>
+      <c r="K18" s="14" t="inlineStr"/>
+      <c r="L18" s="14" t="inlineStr"/>
+      <c r="M18" s="14" t="inlineStr"/>
+      <c r="N18" s="14" t="inlineStr"/>
+      <c r="O18" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20690281045225 
+EXP : 05/03/2027</t>
+        </is>
+      </c>
+      <c r="P18" s="14" t="inlineStr"/>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1">
+      <c r="A19" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>ADOKO LEA SONAGNON</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="14" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
+      <c r="G19" s="14" t="inlineStr"/>
+      <c r="H19" s="14" t="inlineStr"/>
+      <c r="I19" s="14" t="inlineStr"/>
+      <c r="J19" s="14" t="inlineStr"/>
+      <c r="K19" s="14" t="inlineStr"/>
+      <c r="L19" s="14" t="inlineStr"/>
+      <c r="M19" s="14" t="inlineStr"/>
+      <c r="N19" s="14" t="inlineStr"/>
+      <c r="O19" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20053659568425 
+EXP : 21/03/2027</t>
+        </is>
+      </c>
+      <c r="P19" s="14" t="inlineStr"/>
+      <c r="Q19" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>DOSSA ASYLVESTRE</t>
+        </is>
+      </c>
+      <c r="C20" s="14" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr"/>
+      <c r="F20" s="14" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr"/>
+      <c r="H20" s="14" t="inlineStr"/>
+      <c r="I20" s="14" t="inlineStr"/>
+      <c r="J20" s="14" t="inlineStr"/>
+      <c r="K20" s="14" t="inlineStr"/>
+      <c r="L20" s="14" t="inlineStr"/>
+      <c r="M20" s="14" t="inlineStr"/>
+      <c r="N20" s="14" t="inlineStr"/>
+      <c r="O20" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20759735026524 
+EXP : 06/06/2026</t>
+        </is>
+      </c>
+      <c r="P20" s="14" t="inlineStr"/>
+      <c r="Q20" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Arrêté le présent état à la somme de :</t>
+        </is>
+      </c>
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>ZÉRO FRANCS CFA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.05" header="0.3" footer="0.01"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taux de perdiem payé en FCFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12" customHeight="1">
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>MONTANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>6750 // 11250</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM PREMIER &amp; DERNIER JOUR</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>47500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1">
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>Frais de déplacement payés selon les tarifs UNACOB</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>Carburant remboursé au prix de la pompe pour 16L au 100 Km</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1"/>
+    <row r="8" ht="32" customHeight="1">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>TITRE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>nmaxies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="10" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>maxime</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>LIEU DE DEROULEMENT:</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>AHODEKON Maxie</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE PAIEMENT :</t>
+        </is>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>test0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1">
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>ETAT DE PAIEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>N°</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Nom et Prénoms</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Titre</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lieu de 
+provenance</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 1er 
+ET DERNIER JOUR DE 
+MISSION (11250+25000+11250)</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>Montant 
+(A)</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Transport 
+aller-retour 
+(B)</t>
+        </is>
+      </c>
+      <c r="M14" s="9" t="inlineStr">
+        <is>
+          <t>Frais de retrait 
+(si paiement mobile money) 
+(C)</t>
+        </is>
+      </c>
+      <c r="N14" s="9" t="inlineStr">
+        <is>
+          <t>Montant total 
+(A+B+C)</t>
+        </is>
+      </c>
+      <c r="O14" s="9" t="inlineStr">
+        <is>
+          <t>No pièce d'identité</t>
+        </is>
+      </c>
+      <c r="P14" s="9" t="inlineStr">
+        <is>
+          <t>N° téléphone</t>
+        </is>
+      </c>
+      <c r="Q14" s="9" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="I15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="K15" s="12" t="n"/>
+      <c r="L15" s="12" t="n"/>
+      <c r="M15" s="12" t="n"/>
+      <c r="N15" s="12" t="n"/>
+      <c r="O15" s="12" t="n"/>
+      <c r="P15" s="12" t="n"/>
+      <c r="Q15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>TOBOSSI REFI</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="14" t="inlineStr"/>
+      <c r="H16" s="14" t="inlineStr"/>
+      <c r="I16" s="14" t="inlineStr"/>
+      <c r="J16" s="14" t="inlineStr"/>
+      <c r="K16" s="14" t="inlineStr"/>
+      <c r="L16" s="14" t="inlineStr"/>
+      <c r="M16" s="14" t="inlineStr"/>
+      <c r="N16" s="14" t="inlineStr"/>
+      <c r="O16" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20178826942324 
+EXP : 11/04/2026</t>
+        </is>
+      </c>
+      <c r="P16" s="14" t="inlineStr"/>
+      <c r="Q16" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>DOVONON CLEMENTINE</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr"/>
+      <c r="H17" s="14" t="inlineStr"/>
+      <c r="I17" s="14" t="inlineStr"/>
+      <c r="J17" s="14" t="inlineStr"/>
+      <c r="K17" s="14" t="inlineStr"/>
+      <c r="L17" s="14" t="inlineStr"/>
+      <c r="M17" s="14" t="inlineStr"/>
+      <c r="N17" s="14" t="inlineStr"/>
+      <c r="O17" s="14" t="inlineStr">
+        <is>
+          <t>CB 400426032 
+EXP : 05/02/2026</t>
+        </is>
+      </c>
+      <c r="P17" s="14" t="inlineStr"/>
+      <c r="Q17" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>GANSE SEWANOU ALBERTINE</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="14" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr"/>
+      <c r="I18" s="14" t="inlineStr"/>
+      <c r="J18" s="14" t="inlineStr"/>
+      <c r="K18" s="14" t="inlineStr"/>
+      <c r="L18" s="14" t="inlineStr"/>
+      <c r="M18" s="14" t="inlineStr"/>
+      <c r="N18" s="14" t="inlineStr"/>
+      <c r="O18" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20206865504724 
+EXP : 02/04/2026</t>
+        </is>
+      </c>
+      <c r="P18" s="14" t="inlineStr"/>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1">
+      <c r="A19" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="inlineStr">
+        <is>
+          <t>KOUADOUA JULIETTE AYABA M</t>
+        </is>
+      </c>
+      <c r="C19" s="14" t="inlineStr"/>
+      <c r="D19" s="14" t="inlineStr"/>
+      <c r="E19" s="14" t="inlineStr"/>
+      <c r="F19" s="14" t="inlineStr"/>
+      <c r="G19" s="14" t="inlineStr"/>
+      <c r="H19" s="14" t="inlineStr"/>
+      <c r="I19" s="14" t="inlineStr"/>
+      <c r="J19" s="14" t="inlineStr"/>
+      <c r="K19" s="14" t="inlineStr"/>
+      <c r="L19" s="14" t="inlineStr"/>
+      <c r="M19" s="14" t="inlineStr"/>
+      <c r="N19" s="14" t="inlineStr"/>
+      <c r="O19" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20420100254824 
+EXP : 13/12/2026</t>
+        </is>
+      </c>
+      <c r="P19" s="14" t="inlineStr"/>
+      <c r="Q19" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="14" t="inlineStr">
+        <is>
+          <t>LAWANI KADER</t>
+        </is>
+      </c>
+      <c r="C20" s="14" t="inlineStr"/>
+      <c r="D20" s="14" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr"/>
+      <c r="F20" s="14" t="inlineStr"/>
+      <c r="G20" s="14" t="inlineStr"/>
+      <c r="H20" s="14" t="inlineStr"/>
+      <c r="I20" s="14" t="inlineStr"/>
+      <c r="J20" s="14" t="inlineStr"/>
+      <c r="K20" s="14" t="inlineStr"/>
+      <c r="L20" s="14" t="inlineStr"/>
+      <c r="M20" s="14" t="inlineStr"/>
+      <c r="N20" s="14" t="inlineStr"/>
+      <c r="O20" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20670780605223 
+EXP : 04/12/2025</t>
+        </is>
+      </c>
+      <c r="P20" s="14" t="inlineStr"/>
+      <c r="Q20" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="inlineStr">
+        <is>
+          <t>Arrêté le présent état à la somme de :</t>
+        </is>
+      </c>
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>ZÉRO FRANCS CFA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.05" header="0.3" footer="0.01"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="10" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Taux de perdiem payé en FCFA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12" customHeight="1">
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>MONTANT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1">
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>6750 // 11250</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1">
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM PREMIER &amp; DERNIER JOUR</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="5" t="inlineStr">
+        <is>
+          <t>47500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="5" t="inlineStr">
+        <is>
+          <t>40000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1">
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>Frais de déplacement payés selon les tarifs UNACOB</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>Carburant remboursé au prix de la pompe pour 16L au 100 Km</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1"/>
+    <row r="8" ht="32" customHeight="1">
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>TITRE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr">
+        <is>
+          <t>nmaxies</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="10" customHeight="1"/>
+    <row r="10" ht="20" customHeight="1">
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE L'ACTIVITE :</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="inlineStr">
+        <is>
+          <t>maxime</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>LIEU DE DEROULEMENT:</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>AHODEKON Maxie</t>
+        </is>
+      </c>
+      <c r="O10" s="8" t="inlineStr">
+        <is>
+          <t>DATE DE PAIEMENT :</t>
+        </is>
+      </c>
+      <c r="P10" s="7" t="inlineStr">
+        <is>
+          <t>test0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1"/>
+    <row r="12" ht="20" customHeight="1">
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>ETAT DE PAIEMENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>N°</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr">
+        <is>
+          <t>Nom et Prénoms</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="inlineStr">
+        <is>
+          <t>Titre</t>
+        </is>
+      </c>
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lieu de 
+provenance</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+ALLER RETOUR SIMPLE</t>
+        </is>
+      </c>
+      <c r="F14" s="11" t="n"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 1er 
+ET DERNIER JOUR DE 
+MISSION (11250+25000+11250)</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>FORFAIT PERDIEM 
+JOUR COMPLET</t>
+        </is>
+      </c>
+      <c r="J14" s="11" t="n"/>
+      <c r="K14" s="9" t="inlineStr">
+        <is>
+          <t>Montant 
+(A)</t>
+        </is>
+      </c>
+      <c r="L14" s="9" t="inlineStr">
+        <is>
+          <t>Transport 
+aller-retour 
+(B)</t>
+        </is>
+      </c>
+      <c r="M14" s="9" t="inlineStr">
+        <is>
+          <t>Frais de retrait 
+(si paiement mobile money) 
+(C)</t>
+        </is>
+      </c>
+      <c r="N14" s="9" t="inlineStr">
+        <is>
+          <t>Montant total 
+(A+B+C)</t>
+        </is>
+      </c>
+      <c r="O14" s="9" t="inlineStr">
+        <is>
+          <t>No pièce d'identité</t>
+        </is>
+      </c>
+      <c r="P14" s="9" t="inlineStr">
+        <is>
+          <t>N° téléphone</t>
+        </is>
+      </c>
+      <c r="Q14" s="9" t="inlineStr">
+        <is>
+          <t>Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="12" t="n"/>
+      <c r="B15" s="12" t="n"/>
+      <c r="C15" s="12" t="n"/>
+      <c r="D15" s="12" t="n"/>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="H15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="I15" s="13" t="inlineStr">
+        <is>
+          <t>Nbre</t>
+        </is>
+      </c>
+      <c r="J15" s="13" t="inlineStr">
+        <is>
+          <t>Taux Forfait</t>
+        </is>
+      </c>
+      <c r="K15" s="12" t="n"/>
+      <c r="L15" s="12" t="n"/>
+      <c r="M15" s="12" t="n"/>
+      <c r="N15" s="12" t="n"/>
+      <c r="O15" s="12" t="n"/>
+      <c r="P15" s="12" t="n"/>
+      <c r="Q15" s="12" t="n"/>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="inlineStr">
+        <is>
+          <t>AGNIZO VICTORINE</t>
+        </is>
+      </c>
+      <c r="C16" s="14" t="inlineStr"/>
+      <c r="D16" s="14" t="inlineStr"/>
+      <c r="E16" s="14" t="inlineStr"/>
+      <c r="F16" s="14" t="inlineStr"/>
+      <c r="G16" s="14" t="inlineStr"/>
+      <c r="H16" s="14" t="inlineStr"/>
+      <c r="I16" s="14" t="inlineStr"/>
+      <c r="J16" s="14" t="inlineStr"/>
+      <c r="K16" s="14" t="inlineStr"/>
+      <c r="L16" s="14" t="inlineStr"/>
+      <c r="M16" s="14" t="inlineStr"/>
+      <c r="N16" s="14" t="inlineStr"/>
+      <c r="O16" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20056880526624 
+EXP : 03/09/2026</t>
+        </is>
+      </c>
+      <c r="P16" s="14" t="inlineStr"/>
+      <c r="Q16" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="45" customHeight="1">
+      <c r="A17" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="inlineStr">
+        <is>
+          <t>DOSSOUHOUI AHODEGNON ARMAND</t>
+        </is>
+      </c>
+      <c r="C17" s="14" t="inlineStr"/>
+      <c r="D17" s="14" t="inlineStr"/>
+      <c r="E17" s="14" t="inlineStr"/>
+      <c r="F17" s="14" t="inlineStr"/>
+      <c r="G17" s="14" t="inlineStr"/>
+      <c r="H17" s="14" t="inlineStr"/>
+      <c r="I17" s="14" t="inlineStr"/>
+      <c r="J17" s="14" t="inlineStr"/>
+      <c r="K17" s="14" t="inlineStr"/>
+      <c r="L17" s="14" t="inlineStr"/>
+      <c r="M17" s="14" t="inlineStr"/>
+      <c r="N17" s="14" t="inlineStr"/>
+      <c r="O17" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20784205534723 
+EXP : 17/11/2022</t>
+        </is>
+      </c>
+      <c r="P17" s="14" t="inlineStr"/>
+      <c r="Q17" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>TCHOBO FAABO JANVIENNE</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr"/>
+      <c r="D18" s="14" t="inlineStr"/>
+      <c r="E18" s="14" t="inlineStr"/>
+      <c r="F18" s="14" t="inlineStr"/>
+      <c r="G18" s="14" t="inlineStr"/>
+      <c r="H18" s="14" t="inlineStr"/>
+      <c r="I18" s="14" t="inlineStr"/>
+      <c r="J18" s="14" t="inlineStr"/>
+      <c r="K18" s="14" t="inlineStr"/>
+      <c r="L18" s="14" t="inlineStr"/>
+      <c r="M18" s="14" t="inlineStr"/>
+      <c r="N18" s="14" t="inlineStr"/>
+      <c r="O18" s="14" t="inlineStr">
+        <is>
+          <t>CIP 20829987891024 
+EXP : 27/12/2026</t>
+        </is>
+      </c>
+      <c r="P18" s="14" t="inlineStr"/>
+      <c r="Q18" s="14" t="inlineStr">
+        <is>
+          <t>PAYE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="45" customHeight="1">
+      <c r="A19" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="C19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="E19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="G19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="I19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="J19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="K19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="L19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="M19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="N19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="O19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="P19" s="14" t="n">
+        <v/>
+      </c>
+      <c r="Q19" s="14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="45" customHeight="1">
+      <c r="A20" s="14" t="n">
+        <v>5</v>
+      </c>
       <c r="B20" s="14" t="n">
         <v/>
       </c>
@@ -1089,208 +3177,44 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="45" customHeight="1">
-      <c r="A21" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="C21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="F21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="G21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="H21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="I21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="J21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="K21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="L21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="M21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="N21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="O21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="P21" s="14" t="n">
-        <v/>
-      </c>
-      <c r="Q21" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="45" customHeight="1">
-      <c r="A22" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="B22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="C22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="F22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="G22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="H22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="I22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="J22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="K22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="L22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="M22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="N22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="O22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="P22" s="14" t="n">
-        <v/>
-      </c>
-      <c r="Q22" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="45" customHeight="1">
-      <c r="A23" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="B23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="C23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="E23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="F23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="G23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="H23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="I23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="J23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="K23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="L23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="M23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="N23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="O23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="P23" s="14" t="n">
-        <v/>
-      </c>
-      <c r="Q23" s="14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="28" customHeight="1">
-      <c r="A24" s="15" t="n"/>
-      <c r="B24" s="16" t="inlineStr">
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" s="15" t="n"/>
+      <c r="B21" s="16" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C24" s="15" t="n"/>
-      <c r="D24" s="15" t="n"/>
-      <c r="E24" s="15" t="n"/>
-      <c r="F24" s="15" t="n"/>
-      <c r="G24" s="15" t="n"/>
-      <c r="H24" s="15" t="n"/>
-      <c r="I24" s="15" t="n"/>
-      <c r="J24" s="15" t="n"/>
-      <c r="K24" s="15" t="n"/>
-      <c r="L24" s="15" t="n"/>
-      <c r="M24" s="15" t="n"/>
-      <c r="N24" s="16" t="n">
+      <c r="C21" s="15" t="n"/>
+      <c r="D21" s="15" t="n"/>
+      <c r="E21" s="15" t="n"/>
+      <c r="F21" s="15" t="n"/>
+      <c r="G21" s="15" t="n"/>
+      <c r="H21" s="15" t="n"/>
+      <c r="I21" s="15" t="n"/>
+      <c r="J21" s="15" t="n"/>
+      <c r="K21" s="15" t="n"/>
+      <c r="L21" s="15" t="n"/>
+      <c r="M21" s="15" t="n"/>
+      <c r="N21" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O24" s="15" t="n"/>
-      <c r="P24" s="15" t="n"/>
-      <c r="Q24" s="15" t="n"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="17" t="inlineStr">
+      <c r="O21" s="15" t="n"/>
+      <c r="P21" s="15" t="n"/>
+      <c r="Q21" s="15" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="17" t="inlineStr">
         <is>
           <t>Arrêté le présent état à la somme de :</t>
         </is>
       </c>
-      <c r="G26" s="17" t="inlineStr">
+      <c r="G23" s="17" t="inlineStr">
         <is>
           <t>ZÉRO FRANCS CFA</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:J14"/>
-  </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.05" header="0.3" footer="0.01"/>
   <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
